--- a/TermProject/CS296N-TermProjectRubric.xlsx
+++ b/TermProject/CS296N-TermProjectRubric.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CS296N-CourseMaterials/TermProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBACBE5-6264-534A-9E6F-44049B526056}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC503CF-BB7B-6847-B0A8-5A1515256498}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14380" xr2:uid="{A352453A-1606-7D43-A59A-E10A55784CED}"/>
+    <workbookView xWindow="13500" yWindow="780" windowWidth="12020" windowHeight="14380" activeTab="1" xr2:uid="{A352453A-1606-7D43-A59A-E10A55784CED}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Rubric" sheetId="1" r:id="rId1"/>
+    <sheet name="Scoring" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>Code Quality and Style</t>
   </si>
@@ -51,30 +52,15 @@
     <t>Authentication and authorization, 2 roles</t>
   </si>
   <si>
-    <t>Security testing</t>
-  </si>
-  <si>
-    <t>Load Testing</t>
-  </si>
-  <si>
     <t>Published to web</t>
   </si>
   <si>
     <t>Unit Tests</t>
   </si>
   <si>
-    <t>Documentation</t>
-  </si>
-  <si>
-    <t>Completed code review</t>
-  </si>
-  <si>
     <t>Interactive rich media</t>
   </si>
   <si>
-    <t>3 or more tables, 9 or more fields, 8 or more pages</t>
-  </si>
-  <si>
     <t>Navigation</t>
   </si>
   <si>
@@ -87,17 +73,23 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Best OO Design and coding practices</t>
-  </si>
-  <si>
     <t>Standard coding style</t>
+  </si>
+  <si>
+    <t>4 or more tables, 12 or more fields, 10 or more pages</t>
+  </si>
+  <si>
+    <t>Load testing</t>
+  </si>
+  <si>
+    <t>OO Design and coding practices (including Asyc)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -107,14 +99,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -142,10 +126,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,212 +444,375 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C2946B-FEFE-C947-8985-045316750FD9}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:G24"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="7.83203125" customWidth="1"/>
-    <col min="7" max="7" width="6.5" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" customWidth="1"/>
+    <col min="6" max="6" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+      <c r="E10">
+        <v>30</v>
+      </c>
+      <c r="F10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
+      <c r="E11">
+        <v>25</v>
+      </c>
+      <c r="F11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+      <c r="F12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>30</v>
+      </c>
+      <c r="F15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21">
+        <f>SUM(E2:E19)</f>
+        <v>350</v>
+      </c>
+      <c r="F21">
+        <f>SUM(F2:F19)</f>
+        <v>350</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03468CBE-99B7-B64E-9ED0-C5235FA013E3}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="7.83203125" customWidth="1"/>
+    <col min="6" max="6" width="6.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="E4">
         <v>5</v>
       </c>
-      <c r="G6">
+      <c r="F4">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>30</v>
+      </c>
+      <c r="F10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11">
+        <v>25</v>
+      </c>
+      <c r="F11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>50</v>
+      </c>
+      <c r="F12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+      <c r="F13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>30</v>
+      </c>
+      <c r="F15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="F9">
-        <v>25</v>
-      </c>
-      <c r="G9">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10">
-        <v>50</v>
-      </c>
-      <c r="G10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11">
-        <v>15</v>
-      </c>
-      <c r="G11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12">
-        <v>30</v>
-      </c>
-      <c r="G12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13">
-        <v>25</v>
-      </c>
-      <c r="G13">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14">
-        <v>50</v>
-      </c>
-      <c r="G14">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15">
-        <v>50</v>
-      </c>
-      <c r="G15">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17">
-        <v>50</v>
-      </c>
-      <c r="G17">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18">
-        <v>30</v>
-      </c>
-      <c r="G18">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>20</v>
+      <c r="E21">
+        <f>SUM(E2:E19)</f>
+        <v>350</v>
       </c>
       <c r="F21">
-        <v>10</v>
-      </c>
-      <c r="G21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22">
-        <v>10</v>
-      </c>
-      <c r="G22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24">
-        <f>SUM(F2:F22)</f>
-        <v>350</v>
-      </c>
-      <c r="G24">
-        <f>SUM(G2:G22)</f>
+        <f>SUM(F2:F19)</f>
         <v>350</v>
       </c>
     </row>

--- a/TermProject/CS296N-TermProjectRubric.xlsx
+++ b/TermProject/CS296N-TermProjectRubric.xlsx
@@ -1,32 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CS296N-CourseMaterials/TermProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CS296N-CourseMaterials\TermProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC503CF-BB7B-6847-B0A8-5A1515256498}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40014D7-2041-40C5-8A0B-28297F3DF7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13500" yWindow="780" windowWidth="12020" windowHeight="14380" activeTab="1" xr2:uid="{A352453A-1606-7D43-A59A-E10A55784CED}"/>
+    <workbookView xWindow="31644" yWindow="5340" windowWidth="15744" windowHeight="11208" activeTab="1" xr2:uid="{A352453A-1606-7D43-A59A-E10A55784CED}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
     <sheet name="Scoring" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>Code Quality and Style</t>
   </si>
@@ -83,6 +93,42 @@
   </si>
   <si>
     <t>OO Design and coding practices (including Asyc)</t>
+  </si>
+  <si>
+    <t>No search</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>CS296N Term Project Scoring</t>
+  </si>
+  <si>
+    <t>Late submission</t>
+  </si>
+  <si>
+    <t>Percent deduction:</t>
+  </si>
+  <si>
+    <t>One test passes, one fails.</t>
+  </si>
+  <si>
+    <t>Crash on create a god or weapon.</t>
+  </si>
+  <si>
+    <t>Not working</t>
+  </si>
+  <si>
+    <t>1 role. Can't log in as admin</t>
+  </si>
+  <si>
+    <t>Doesn't run</t>
+  </si>
+  <si>
+    <t>No async, other issues.</t>
+  </si>
+  <si>
+    <t>Casing, other issues.</t>
   </si>
 </sst>
 </file>
@@ -126,9 +172,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,18 +500,18 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="7.83203125" customWidth="1"/>
+    <col min="5" max="5" width="7.796875" customWidth="1"/>
     <col min="6" max="6" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -472,7 +522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -483,12 +533,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -499,7 +549,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -510,7 +560,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -521,7 +571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -532,7 +582,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -543,7 +593,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -554,7 +604,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -565,7 +615,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -576,7 +626,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -587,12 +637,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -603,7 +653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -614,7 +664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -635,33 +685,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03468CBE-99B7-B64E-9ED0-C5235FA013E3}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H22" sqref="A3:H22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="7.83203125" customWidth="1"/>
+    <col min="5" max="5" width="7.796875" customWidth="1"/>
     <col min="6" max="6" width="6.5" customWidth="1"/>
+    <col min="7" max="7" width="1.3984375" customWidth="1"/>
+    <col min="8" max="8" width="23.59765625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="1.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -669,15 +727,26 @@
         <v>5</v>
       </c>
       <c r="F4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2">
+        <f>F4/E4</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -685,10 +754,14 @@
         <v>25</v>
       </c>
       <c r="F7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <f>F7/E7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -698,8 +771,12 @@
       <c r="F8">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J8" s="2">
+        <f>F8/E8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -709,8 +786,12 @@
       <c r="F9">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J9" s="2">
+        <f>F9/E9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -718,10 +799,17 @@
         <v>30</v>
       </c>
       <c r="F10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="2">
+        <f>F10/E10</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -729,10 +817,17 @@
         <v>25</v>
       </c>
       <c r="F11">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="2">
+        <f>F11/E11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -740,10 +835,17 @@
         <v>50</v>
       </c>
       <c r="F12">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="2">
+        <f>F12/E12</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -751,10 +853,14 @@
         <v>50</v>
       </c>
       <c r="F13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <f>F13/E13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -762,10 +868,17 @@
         <v>50</v>
       </c>
       <c r="F14">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="2">
+        <f>F14/E14</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -773,15 +886,26 @@
         <v>30</v>
       </c>
       <c r="F15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="2">
+        <f>F15/E15</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -789,10 +913,17 @@
         <v>10</v>
       </c>
       <c r="F18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="2">
+        <f>F18/E18</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -800,10 +931,20 @@
         <v>10</v>
       </c>
       <c r="F19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" s="2">
+        <f>F19/E19</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -813,11 +954,34 @@
       </c>
       <c r="F21">
         <f>SUM(F2:F19)</f>
-        <v>350</v>
+        <v>167</v>
+      </c>
+      <c r="J21" s="2">
+        <f>F21/E21</f>
+        <v>0.47714285714285715</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F22">
+        <f>ROUND(F21*(1-E22), 0)</f>
+        <v>159</v>
+      </c>
+      <c r="J22" s="2">
+        <f>F22/E21</f>
+        <v>0.45428571428571429</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TermProject/CS296N-TermProjectRubric.xlsx
+++ b/TermProject/CS296N-TermProjectRubric.xlsx
@@ -1,42 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CS296N-CourseMaterials\TermProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birdb/Projects/CS296N-CourseMaterials/TermProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40014D7-2041-40C5-8A0B-28297F3DF7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A9BEF0-205B-214D-AE2E-7CF5C77C08E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31644" yWindow="5340" windowWidth="15744" windowHeight="11208" activeTab="1" xr2:uid="{A352453A-1606-7D43-A59A-E10A55784CED}"/>
+    <workbookView xWindow="-36340" yWindow="2160" windowWidth="19300" windowHeight="18540" activeTab="1" xr2:uid="{A352453A-1606-7D43-A59A-E10A55784CED}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
     <sheet name="Scoring" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>Code Quality and Style</t>
   </si>
@@ -86,18 +76,12 @@
     <t>Standard coding style</t>
   </si>
   <si>
-    <t>4 or more tables, 12 or more fields, 10 or more pages</t>
-  </si>
-  <si>
     <t>Load testing</t>
   </si>
   <si>
     <t>OO Design and coding practices (including Asyc)</t>
   </si>
   <si>
-    <t>No search</t>
-  </si>
-  <si>
     <t>Percentage</t>
   </si>
   <si>
@@ -110,25 +94,7 @@
     <t>Percent deduction:</t>
   </si>
   <si>
-    <t>One test passes, one fails.</t>
-  </si>
-  <si>
-    <t>Crash on create a god or weapon.</t>
-  </si>
-  <si>
-    <t>Not working</t>
-  </si>
-  <si>
-    <t>1 role. Can't log in as admin</t>
-  </si>
-  <si>
-    <t>Doesn't run</t>
-  </si>
-  <si>
-    <t>No async, other issues.</t>
-  </si>
-  <si>
-    <t>Casing, other issues.</t>
+    <t>4+ model classes, 12+ fields, 10+ views, 8+ data views</t>
   </si>
 </sst>
 </file>
@@ -494,186 +460,143 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C2946B-FEFE-C947-8985-045316750FD9}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="F3" sqref="F3:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="7.796875" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" customWidth="1"/>
     <col min="6" max="6" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="E4">
         <v>5</v>
       </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="E7">
         <v>25</v>
       </c>
-      <c r="F7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>50</v>
       </c>
-      <c r="F8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="E9">
         <v>15</v>
       </c>
-      <c r="F9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="E10">
         <v>30</v>
       </c>
-      <c r="F10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="E11">
         <v>25</v>
       </c>
-      <c r="F11">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
       <c r="E12">
         <v>50</v>
       </c>
-      <c r="F12">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>50</v>
       </c>
-      <c r="F13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="E14">
         <v>50</v>
       </c>
-      <c r="F14">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
       <c r="E15">
         <v>30</v>
       </c>
-      <c r="F15">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>10</v>
       </c>
-      <c r="F18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>15</v>
       </c>
       <c r="E19">
         <v>10</v>
       </c>
-      <c r="F19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>14</v>
       </c>
       <c r="E21">
         <f>SUM(E2:E19)</f>
-        <v>350</v>
-      </c>
-      <c r="F21">
-        <f>SUM(F2:F19)</f>
         <v>350</v>
       </c>
     </row>
@@ -687,25 +610,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03468CBE-99B7-B64E-9ED0-C5235FA013E3}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H22" sqref="A3:H22"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25:F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="7.796875" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" customWidth="1"/>
     <col min="6" max="6" width="6.5" customWidth="1"/>
-    <col min="7" max="7" width="1.3984375" customWidth="1"/>
-    <col min="8" max="8" width="23.59765625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="1.69921875" customWidth="1"/>
+    <col min="7" max="7" width="1.33203125" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="1.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -716,10 +639,10 @@
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -727,26 +650,23 @@
         <v>5</v>
       </c>
       <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J4" s="2">
         <f>F4/E4</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -754,16 +674,16 @@
         <v>25</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J7" s="2">
-        <f>F7/E7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" ref="J7:J15" si="0">F7/E7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>50</v>
@@ -772,11 +692,11 @@
         <v>50</v>
       </c>
       <c r="J8" s="2">
-        <f>F8/E8</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -787,11 +707,11 @@
         <v>15</v>
       </c>
       <c r="J9" s="2">
-        <f>F9/E9</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -799,17 +719,14 @@
         <v>30</v>
       </c>
       <c r="F10">
-        <v>10</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J10" s="2">
-        <f>F10/E10</f>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -817,17 +734,14 @@
         <v>25</v>
       </c>
       <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J11" s="2">
-        <f>F11/E11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -835,32 +749,29 @@
         <v>50</v>
       </c>
       <c r="F12">
-        <v>40</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="J12" s="2">
-        <f>F12/E12</f>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>50</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J13" s="2">
-        <f>F13/E13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -868,17 +779,14 @@
         <v>50</v>
       </c>
       <c r="F14">
-        <v>25</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="J14" s="2">
-        <f>F14/E14</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -886,44 +794,38 @@
         <v>30</v>
       </c>
       <c r="F15">
-        <v>15</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J15" s="2">
-        <f>F15/E15</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>10</v>
       </c>
       <c r="F18">
-        <v>5</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="J18" s="2">
         <f>F18/E18</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -931,20 +833,17 @@
         <v>10</v>
       </c>
       <c r="F19">
-        <v>5</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="J19" s="2">
         <f>F19/E19</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -954,30 +853,30 @@
       </c>
       <c r="F21">
         <f>SUM(F2:F19)</f>
-        <v>167</v>
+        <v>350</v>
       </c>
       <c r="J21" s="2">
         <f>F21/E21</f>
-        <v>0.47714285714285715</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E22" s="2">
         <v>0.05</v>
       </c>
       <c r="F22">
         <f>ROUND(F21*(1-E22), 0)</f>
-        <v>159</v>
+        <v>333</v>
       </c>
       <c r="J22" s="2">
         <f>F22/E21</f>
-        <v>0.45428571428571429</v>
+        <v>0.9514285714285714</v>
       </c>
     </row>
   </sheetData>

--- a/TermProject/CS296N-TermProjectRubric.xlsx
+++ b/TermProject/CS296N-TermProjectRubric.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birdb/Projects/CS296N-CourseMaterials/TermProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3A9BEF0-205B-214D-AE2E-7CF5C77C08E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6B2FAD-5D02-2C4C-8F94-41633FFDC897}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36340" yWindow="2160" windowWidth="19300" windowHeight="18540" activeTab="1" xr2:uid="{A352453A-1606-7D43-A59A-E10A55784CED}"/>
+    <workbookView xWindow="-20040" yWindow="1840" windowWidth="19300" windowHeight="18540" xr2:uid="{A352453A-1606-7D43-A59A-E10A55784CED}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>Code Quality and Style</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>4+ model classes, 12+ fields, 10+ views, 8+ data views</t>
+  </si>
+  <si>
+    <t>Search (aka filtering)</t>
   </si>
 </sst>
 </file>
@@ -462,8 +465,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F21"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -473,7 +476,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -532,7 +535,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>25</v>
@@ -610,7 +613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03468CBE-99B7-B64E-9ED0-C5235FA013E3}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="E25" sqref="E25:F25"/>
     </sheetView>
   </sheetViews>

--- a/TermProject/CS296N-TermProjectRubric.xlsx
+++ b/TermProject/CS296N-TermProjectRubric.xlsx
@@ -1,32 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birdb/Projects/CS296N-CourseMaterials/TermProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\CS296N-CourseMaterials\TermProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6B2FAD-5D02-2C4C-8F94-41633FFDC897}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37FAD937-9277-4F98-9CA2-3391CD60A8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20040" yWindow="1840" windowWidth="19300" windowHeight="18540" xr2:uid="{A352453A-1606-7D43-A59A-E10A55784CED}"/>
+    <workbookView xWindow="-17112" yWindow="4332" windowWidth="17028" windowHeight="10992" activeTab="1" xr2:uid="{A352453A-1606-7D43-A59A-E10A55784CED}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
     <sheet name="Scoring" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>Code Quality and Style</t>
   </si>
@@ -98,6 +109,12 @@
   </si>
   <si>
     <t>Search (aka filtering)</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>OO Design and coding practices (including Async)</t>
   </si>
 </sst>
 </file>
@@ -141,11 +158,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -166,9 +186,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -206,7 +226,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -312,7 +332,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -454,7 +474,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -465,22 +485,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="7.83203125" customWidth="1"/>
+    <col min="5" max="5" width="7.796875" customWidth="1"/>
     <col min="6" max="6" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -488,7 +508,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -496,12 +516,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -509,7 +529,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -517,7 +537,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -525,7 +545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -533,7 +553,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -541,7 +561,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -549,7 +569,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -557,7 +577,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -565,7 +585,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -573,12 +593,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -586,7 +606,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -594,7 +614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -613,25 +633,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03468CBE-99B7-B64E-9ED0-C5235FA013E3}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25:F25"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="7.83203125" customWidth="1"/>
+    <col min="5" max="5" width="7.796875" customWidth="1"/>
     <col min="6" max="6" width="6.5" customWidth="1"/>
-    <col min="7" max="7" width="1.33203125" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="1.6640625" customWidth="1"/>
+    <col min="7" max="7" width="1.296875" customWidth="1"/>
+    <col min="8" max="8" width="23.69921875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="1.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -641,11 +661,14 @@
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H3" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="J3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -660,16 +683,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -684,7 +707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -699,7 +722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -714,7 +737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -729,7 +752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -744,7 +767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -759,7 +782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -774,7 +797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -789,7 +812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -804,18 +827,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E18">
         <v>10</v>
@@ -828,7 +851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -843,10 +866,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="J20" s="2"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -863,7 +886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
